--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity_Project\XYRogueLike_ET\XYRogueLike_ET\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity_Project\RogueLike\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A263A66-5832-467D-B8A4-4C249B5E388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68429E03-AC8B-4711-B7CC-BADD0CDD447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -122,6 +116,10 @@
   <si>
     <t>#公共服，用来存放用户信息等公共配置将登录时用到的Realm服务器迁移到公共服</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeScene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -536,7 +534,7 @@
   <dimension ref="B3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -611,7 +609,7 @@
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -722,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -740,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -840,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -860,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -880,10 +878,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -900,10 +898,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -920,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
@@ -955,7 +953,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
@@ -1046,10 +1044,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5">
         <v>30002</v>
